--- a/requirements/投资（或清算）总表.xlsx
+++ b/requirements/投资（或清算）总表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>产品编号</t>
   </si>
@@ -61,14 +61,30 @@
   </si>
   <si>
     <t>例：WJRTB-QDJF-RJBL-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票面金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂牌服务费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受托管理费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,16 +147,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -201,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -253,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -447,161 +475,196 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="20.399999999999999">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" ht="15.6">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:15" ht="15.6">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3">
+        <f>K3*0.06%*H3/365</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>K3*0.04%*H3/365</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:15" ht="15.6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:15" ht="15.6">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:15" ht="15.6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:15" ht="15.6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
